--- a/BBS&AKT.xlsx
+++ b/BBS&AKT.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alikocaaga/Desktop/Amazon/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alikocaaga/IdeaProjects/git/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A0E5FE2-E53E-F54A-88B2-9036D275398D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04D8B92A-99C6-FC4E-85C1-B1016BE72B6F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="160" yWindow="540" windowWidth="25440" windowHeight="15000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3120,7 +3120,7 @@
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3229,7 +3229,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="2">
-        <v>2970.1099999999997</v>
+        <v>4500</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
@@ -3237,13 +3237,14 @@
         <v>13</v>
       </c>
       <c r="B14" s="2">
-        <v>88968.61</v>
+        <f>SUM(B2:B13)</f>
+        <v>90498.499999999985</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B15" s="3">
         <f>B14/12</f>
-        <v>7414.0508333333337</v>
+        <v>7541.5416666666652</v>
       </c>
     </row>
   </sheetData>
